--- a/NB测试终端-预付费用记录.xlsx
+++ b/NB测试终端-预付费用记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,18 +32,26 @@
     <t>2.4寸液晶屏 tft显示屏 lcm模组 高清lcd屏 并口8位焊接24PIN液晶</t>
   </si>
   <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人蓝牙模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人主从一体蓝牙模块|小体积|多功能|工业级|USR-BLE101</t>
+  </si>
+  <si>
     <t>61.00 </t>
-  </si>
-  <si>
-    <t>物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +82,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,17 +130,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -127,6 +161,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,7 +458,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,98 +469,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B4" s="3">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -523,8 +575,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://trade.taobao.com/trade/detail/tradeSnap.htm?spm=a1z09.3.0.0.1d494a7fEwJfje&amp;trade_id=128410781781572396"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z1r.7974869.0.0.269c3ad40Jtn3l&amp;id=558297460146"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/NB测试终端-预付费用记录.xlsx
+++ b/NB测试终端-预付费用记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,19 @@
   </si>
   <si>
     <t>61.00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正点原子Mini开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【可买书】正点原子STM32 F103开发板+2.8寸触屏 强ARM7单片机 51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -160,19 +173,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,7 +477,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,11 +488,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -493,7 +512,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -504,19 +523,29 @@
       <c r="B4" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>188</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>

--- a/NB测试终端-预付费用记录.xlsx
+++ b/NB测试终端-预付费用记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
   <si>
     <t xml:space="preserve">
 【可买书】正点原子STM32 F103开发板+2.8寸触屏 强ARM7单片机 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7v聚合物锂电池4000mAh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,11 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,11 +496,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -512,7 +520,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -548,18 +556,30 @@
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>390</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>47.6</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
